--- a/datascience/data/species.xlsx
+++ b/datascience/data/species.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darrin\Work\Planting_Optimisation_tool_dws\datascience\suitability_scoring\notebooks\temp_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darrin\Work\Planting_Optimisation_tool_dws\datascience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCCF094-CF4B-49F2-A341-DB2C14F6D1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCC2628-9BC4-4296-9358-D0D70D82DC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-285" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60960" yWindow="1395" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,6 @@
     <t>preferred_soil_texture</t>
   </si>
   <si>
-    <t>costal</t>
-  </si>
-  <si>
     <t>riparian</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>intercropping, boundary, block</t>
+  </si>
+  <si>
+    <t>coastal</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -616,22 +616,22 @@
         <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="25" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>7.7</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M2" s="5" t="b">
         <v>1</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>7.5</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M3" s="6" t="b">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" s="6" t="b">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="25" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>7.5</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5" s="6" t="b">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="25" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>7.5</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" s="6" t="b">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="25" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7" s="6" t="b">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="25" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M8" s="6" t="b">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="25" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>6.5</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="6" t="b">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="25" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>7.5</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M10" s="6" t="b">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>7.5</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M11" s="6" t="b">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="25" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" s="6" t="b">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="25" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>8.5</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" s="5" t="b">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>7.5</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" s="6" t="b">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>7.4</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" s="6" t="b">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M16" s="6" t="b">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="75" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>7.4</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M17" s="6" t="b">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="37.5" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>7.4</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M18" s="6" t="b">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="6">
         <v>1500</v>
@@ -1621,7 +1621,7 @@
         <v>7.3</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M19" s="6" t="b">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="37.5" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M20" s="6" t="b">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S20" s="2"/>
     </row>
@@ -1734,7 +1734,7 @@
         <v>7.3</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="6" t="b">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S21" s="1"/>
     </row>
@@ -1779,6 +1779,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100364D73228578DF4DB485C574B69A0DE9" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="52a3386525053e6db11b716e7def64b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5433951f-06c3-4618-8b57-3de8e57a9660" xmlns:ns3="7998ff36-f67b-497d-9ba5-0737ce74e881" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdd95e8bdbb8a6e33b28404e6fa50ffb" ns2:_="" ns3:_="">
     <xsd:import namespace="5433951f-06c3-4618-8b57-3de8e57a9660"/>
@@ -2066,15 +2075,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D1BA54D-BC7F-4C87-BE46-2D5F9FE86096}">
   <ds:schemaRefs>
@@ -2087,6 +2087,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDE8AF1-C67E-44CB-ADB2-0710A241AF03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D1DD424-7DAD-4DB2-A539-D30B372CDB8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2103,12 +2111,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDE8AF1-C67E-44CB-ADB2-0710A241AF03}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>